--- a/data/trans_dic/P23_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P23_R-Dificultad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4096311993767948</v>
+        <v>0.4092318967326065</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4457081042107641</v>
+        <v>0.4439759420209323</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4102279747287825</v>
+        <v>0.4090771646449252</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2140548679968165</v>
+        <v>0.2138048636388988</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2915380683580347</v>
+        <v>0.2901352712177138</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2908719500135573</v>
+        <v>0.2903410532927776</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2978261513506317</v>
+        <v>0.2980773354555659</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3714148771702671</v>
+        <v>0.3738736234876381</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3549405133759231</v>
+        <v>0.3545434010266084</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4889741155073284</v>
+        <v>0.4906143592187192</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5097580824606204</v>
+        <v>0.5086103445798575</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4687276560306212</v>
+        <v>0.4679869326192085</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.26992772190654</v>
+        <v>0.2711165498725199</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3469793458833265</v>
+        <v>0.3474575402877205</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.345835119570337</v>
+        <v>0.341209190457941</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3445025056700538</v>
+        <v>0.34688142096854</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4158238780438592</v>
+        <v>0.4180080659883319</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3969628430617727</v>
+        <v>0.3938295595902666</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4258200969568312</v>
+        <v>0.4263678841056449</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3850672631545569</v>
+        <v>0.3825062433479781</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.332033671919474</v>
+        <v>0.3301472714116381</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2369841553796618</v>
+        <v>0.2349692224530257</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.240639468412577</v>
+        <v>0.2419091848584042</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2350066778356892</v>
+        <v>0.234718284825258</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3416866327470729</v>
+        <v>0.3405541776181472</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3173323797974181</v>
+        <v>0.3165617183732006</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2887230858592384</v>
+        <v>0.2891232466399729</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4880518110293459</v>
+        <v>0.4862465339149549</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4492479026512639</v>
+        <v>0.4477086122418766</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3944767692808826</v>
+        <v>0.3936626124475534</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2919154305276056</v>
+        <v>0.2890798403431619</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2983995086420632</v>
+        <v>0.2948093922840748</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2898080542537183</v>
+        <v>0.2897475758713009</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.38343489505881</v>
+        <v>0.383922644878612</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.35985604509332</v>
+        <v>0.3581601881614884</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3311207937711675</v>
+        <v>0.329871747863713</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.377887323946771</v>
+        <v>0.379923337117953</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2907981720938205</v>
+        <v>0.2909093171588791</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2467236757988666</v>
+        <v>0.2451854528427467</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2240989629498773</v>
+        <v>0.2236810871080725</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2220710135359629</v>
+        <v>0.2193215495822909</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1838007753723148</v>
+        <v>0.1829718522465923</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3129797585027129</v>
+        <v>0.3122410766849504</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2641508760948207</v>
+        <v>0.264845253939429</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2231118926399754</v>
+        <v>0.2242454099228838</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4338290947181871</v>
+        <v>0.4364600563134361</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3545429337585175</v>
+        <v>0.3564165897783039</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3110787894544071</v>
+        <v>0.3110192979957347</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2768473592432348</v>
+        <v>0.2788849676058476</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.281098343502368</v>
+        <v>0.280628347141581</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.242251537331848</v>
+        <v>0.244576184411453</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3552705070778781</v>
+        <v>0.3530645815191479</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3108086807577735</v>
+        <v>0.3108466115816371</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2682731793042061</v>
+        <v>0.2694240562357209</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3124924755664967</v>
+        <v>0.3131838764873672</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2729209134452562</v>
+        <v>0.2803702437686996</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2202036176335387</v>
+        <v>0.2206090074450874</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2391691676815192</v>
+        <v>0.2431751949454455</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.19112643499659</v>
+        <v>0.1921412938318731</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1554738289440674</v>
+        <v>0.1552568860955784</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2971626594528468</v>
+        <v>0.2972824122512871</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2455096803813455</v>
+        <v>0.2454127834633461</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1993703831643148</v>
+        <v>0.1992984168540272</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.40620548919935</v>
+        <v>0.4054464570474414</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3595945294978452</v>
+        <v>0.3663732810034489</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2991526755909618</v>
+        <v>0.2983538815696032</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3403230259922761</v>
+        <v>0.3448384965649477</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2751941968662394</v>
+        <v>0.2726742332710871</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2303592563980803</v>
+        <v>0.2283967960871018</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3624705819025796</v>
+        <v>0.3653987317134821</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3049361498336279</v>
+        <v>0.3058930014703138</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2527686722948783</v>
+        <v>0.2500115258872637</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4071976192456126</v>
+        <v>0.4080404378962851</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3776503353224647</v>
+        <v>0.3778927840696345</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3344008870092833</v>
+        <v>0.3342614801509408</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2404939921378236</v>
+        <v>0.2413136154849919</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2592023110691608</v>
+        <v>0.2592760611043072</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2455604774936274</v>
+        <v>0.246271286148766</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3270726556269939</v>
+        <v>0.326920209152795</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3227971915325938</v>
+        <v>0.3220975325609256</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2938239316664438</v>
+        <v>0.2928028265831029</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4431949144082901</v>
+        <v>0.4424127273418215</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4134386681803922</v>
+        <v>0.4133311021393495</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3677562848749368</v>
+        <v>0.3667276700279216</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.269682228652291</v>
+        <v>0.2713813180235975</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2905223232143843</v>
+        <v>0.2918140061620326</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2754314442297522</v>
+        <v>0.2768172627866574</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.351297508331298</v>
+        <v>0.3508496279964811</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3456416750963739</v>
+        <v>0.3450721460828985</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3165714085790814</v>
+        <v>0.3161419312923099</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>239282</v>
+        <v>239049</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>464831</v>
+        <v>463025</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>462736</v>
+        <v>461438</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>197430</v>
+        <v>197199</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>326502</v>
+        <v>324931</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>366048</v>
+        <v>365380</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>448667</v>
+        <v>449046</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>803308</v>
+        <v>808626</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>847047</v>
+        <v>846100</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>285630</v>
+        <v>286588</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>531629</v>
+        <v>530432</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>528723</v>
+        <v>527888</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>248963</v>
+        <v>250060</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>388592</v>
+        <v>389127</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>435217</v>
+        <v>429395</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>518984</v>
+        <v>522568</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>899358</v>
+        <v>904082</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>947332</v>
+        <v>939854</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>458989</v>
+        <v>459579</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>376239</v>
+        <v>373737</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>301761</v>
+        <v>300046</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>250620</v>
+        <v>248489</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>263323</v>
+        <v>264712</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>235767</v>
+        <v>235478</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>729649</v>
+        <v>727230</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>657302</v>
+        <v>655705</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>552056</v>
+        <v>552821</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>526068</v>
+        <v>524122</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>438948</v>
+        <v>437444</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>358510</v>
+        <v>357770</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>308712</v>
+        <v>305713</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>326527</v>
+        <v>322599</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>290746</v>
+        <v>290685</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>818799</v>
+        <v>819841</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>745382</v>
+        <v>741870</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>633123</v>
+        <v>630735</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>423836</v>
+        <v>426120</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>257390</v>
+        <v>257488</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>202763</v>
+        <v>201499</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>222741</v>
+        <v>222326</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>194049</v>
+        <v>191646</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>141521</v>
+        <v>140883</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>662119</v>
+        <v>660557</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>464623</v>
+        <v>465844</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>355148</v>
+        <v>356952</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>486580</v>
+        <v>489531</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>313811</v>
+        <v>315470</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>255652</v>
+        <v>255603</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>275170</v>
+        <v>277195</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>245628</v>
+        <v>245217</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>186526</v>
+        <v>188316</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>751587</v>
+        <v>746920</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>546690</v>
+        <v>546757</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>427035</v>
+        <v>428867</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>139747</v>
+        <v>140056</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>137285</v>
+        <v>141033</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>111577</v>
+        <v>111783</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>81594</v>
+        <v>82961</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>86530</v>
+        <v>86989</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>76135</v>
+        <v>76029</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>234271</v>
+        <v>234365</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>234648</v>
+        <v>234555</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>198652</v>
+        <v>198581</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>181655</v>
+        <v>181316</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>180884</v>
+        <v>184294</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>151581</v>
+        <v>151176</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>116104</v>
+        <v>117644</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>124590</v>
+        <v>123449</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>112806</v>
+        <v>111845</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>285757</v>
+        <v>288065</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>291445</v>
+        <v>292360</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>251858</v>
+        <v>249111</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1315586</v>
+        <v>1318309</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1287076</v>
+        <v>1287902</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1125375</v>
+        <v>1124906</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>797230</v>
+        <v>799947</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>917768</v>
+        <v>918029</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>864705</v>
+        <v>867208</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2140952</v>
+        <v>2139954</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2243071</v>
+        <v>2238209</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2023477</v>
+        <v>2016445</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1431887</v>
+        <v>1429360</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1409047</v>
+        <v>1408680</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1237627</v>
+        <v>1234165</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>893988</v>
+        <v>899621</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1028664</v>
+        <v>1033238</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>969892</v>
+        <v>974772</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>2299523</v>
+        <v>2296591</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2401814</v>
+        <v>2397857</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>2180132</v>
+        <v>2177175</v>
       </c>
     </row>
     <row r="24">
